--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brock\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brock\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7D7C1759-39C4-4827-944B-7F72BD602072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34554548-F0E0-44A3-88A5-E2894E5D13C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="website_audits" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,14 +940,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13.06640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="13.73046875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brock\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{626FE69F-14C5-4A8E-BCEA-0CDF78FA1062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A348E28-8214-4CEF-A0AF-F11996554105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="9667" yWindow="360" windowWidth="9076" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="website_audits" sheetId="1" r:id="rId1"/>
+    <sheet name="PokeROM Audits" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Page</t>
   </si>
@@ -43,70 +43,67 @@
     <t>Home</t>
   </si>
   <si>
-    <t>93, 95, 94, 95, 94; 94.2</t>
-  </si>
-  <si>
     <t>ROMs</t>
   </si>
   <si>
-    <t>97, 97, 97, 98, 97; 97.2</t>
-  </si>
-  <si>
     <t>ROM Info</t>
   </si>
   <si>
-    <t>98, 98, 98, 98, 97; 97.8</t>
-  </si>
-  <si>
     <t>Natures</t>
   </si>
   <si>
-    <t>98, 96, 98, 97, 97; 97.2</t>
-  </si>
-  <si>
     <t>FAQ</t>
   </si>
   <si>
-    <t>98, 96, 98, 98, 98; 97.6</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
-    <t>97, 98, 98, 97, 98; 97.6</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>100, 99, 99, 100, 100, 99.6</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
-    <t>99, 97, 100, 99, 99; 98.8</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
-    <t>99, 98, 98, 98, 99; 98.2</t>
-  </si>
-  <si>
     <t>Not Found</t>
   </si>
   <si>
-    <t>99, 99, 96, 99, 97; 98</t>
-  </si>
-  <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>99, 96, 97, 97, 98; 97.4</t>
+  </si>
+  <si>
+    <t>94, 95, 97, 93, 93; 94.4</t>
+  </si>
+  <si>
+    <t>96, 94, 92, 95, 91; 93.6</t>
+  </si>
+  <si>
+    <t>91, 98, 91, 96, 96; 95.8</t>
+  </si>
+  <si>
+    <t>97, 97, 98, 98, 94; 96.8</t>
+  </si>
+  <si>
+    <t>TRUE, TRUE, TRUE, TRUE, TRUE; 1</t>
+  </si>
+  <si>
+    <t>98, 98, 98, 99, 95; 97.6</t>
+  </si>
+  <si>
+    <t>99, 99, 98, 98, 99; 98.6</t>
+  </si>
+  <si>
+    <t>98, 98, 99, 98, 99; 98.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,10 +937,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -972,219 +971,105 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>98</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>98</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>92</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>97</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8">
-        <v>92</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>97</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>92</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>98</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>100</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>97.62</v>
-      </c>
-      <c r="C12">
-        <v>98.1</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>97.6</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -174,7 +174,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -43,31 +43,58 @@
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">99, </t>
+    <t xml:space="preserve">99, 98, 99, 98, 99; 98.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE, TRUE, TRUE, TRUE, TRUE; 1</t>
   </si>
   <si>
     <t xml:space="preserve">ROMs</t>
   </si>
   <si>
+    <t xml:space="preserve">97, 96, 95, 97, 96; 96.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ROM Info</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 96, 97, 98, 98; 97.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natures</t>
   </si>
   <si>
+    <t xml:space="preserve">97, 98, 97, 98, 98; 97.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAQ</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 98, 98, 97, 98; 97.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rate</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 98, 98, 98, 97; 97.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 99, 99, 99, 99; 98.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Register</t>
   </si>
   <si>
+    <t xml:space="preserve">99, 96, 94, 98, 99; 97.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97, </t>
   </si>
   <si>
     <t xml:space="preserve">Not Found</t>
@@ -174,14 +201,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,55 +242,103 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -94,21 +94,28 @@
     <t xml:space="preserve">Account</t>
   </si>
   <si>
-    <t xml:space="preserve">97, </t>
+    <t xml:space="preserve">97, 97, 97, 97, 97; 97</t>
   </si>
   <si>
     <t xml:space="preserve">Not Found</t>
   </si>
   <si>
+    <t xml:space="preserve">99, 99, 99, 100, 100; 99.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -176,8 +183,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,7 +212,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,6 +253,15 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F2" s="0" t="s">
         <v>8</v>
       </c>
@@ -253,6 +273,15 @@
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F3" s="0" t="s">
         <v>8</v>
       </c>
@@ -264,6 +293,15 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F4" s="0" t="s">
         <v>8</v>
       </c>
@@ -275,6 +313,15 @@
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F5" s="0" t="s">
         <v>8</v>
       </c>
@@ -286,6 +333,15 @@
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="F6" s="0" t="s">
         <v>8</v>
       </c>
@@ -297,6 +353,15 @@
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F7" s="0" t="s">
         <v>8</v>
       </c>
@@ -308,6 +373,15 @@
       <c r="B8" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="F8" s="0" t="s">
         <v>8</v>
       </c>
@@ -319,6 +393,15 @@
       <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="F9" s="0" t="s">
         <v>8</v>
       </c>
@@ -330,15 +413,57 @@
       <c r="B10" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>97.28</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -43,79 +43,53 @@
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">99, 98, 99, 98, 99; 98.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE, TRUE, TRUE, TRUE, TRUE; 1</t>
+    <t xml:space="preserve">95, 98, 97, 98, 99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE, TRUE, TRUE, TRUE, TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">ROMs</t>
   </si>
   <si>
-    <t xml:space="preserve">97, 96, 95, 97, 96; 96.2</t>
+    <t xml:space="preserve">98, </t>
   </si>
   <si>
     <t xml:space="preserve">ROM Info</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 96, 97, 98, 98; 97.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Natures</t>
   </si>
   <si>
-    <t xml:space="preserve">97, 98, 97, 98, 98; 97.6</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAQ</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 98, 98, 97, 98; 97.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 98, 98, 98, 97; 97.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 99, 99, 99, 99; 98.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Register</t>
   </si>
   <si>
-    <t xml:space="preserve">99, 96, 94, 98, 99; 97.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account</t>
   </si>
   <si>
-    <t xml:space="preserve">97, 97, 97, 97, 97; 97</t>
-  </si>
-  <si>
     <t xml:space="preserve">Not Found</t>
   </si>
   <si>
-    <t xml:space="preserve">99, 99, 99, 100, 100; 99.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 / 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -183,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -253,16 +231,7 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -273,199 +242,62 @@
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>96</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>97.28</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>98</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>97</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -52,19 +52,31 @@
     <t xml:space="preserve">ROMs</t>
   </si>
   <si>
-    <t xml:space="preserve">98, </t>
+    <t xml:space="preserve">98, 97, 97, 96, 95</t>
   </si>
   <si>
     <t xml:space="preserve">ROM Info</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 98, 98, 98, 97</t>
+  </si>
+  <si>
     <t xml:space="preserve">Natures</t>
   </si>
   <si>
+    <t xml:space="preserve">98, 98, 97, 97, 98</t>
+  </si>
+  <si>
     <t xml:space="preserve">FAQ</t>
   </si>
   <si>
+    <t xml:space="preserve">99, 98, 98, 94, 98</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98, 99, </t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
@@ -190,7 +202,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -242,50 +254,74 @@
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
     </row>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -43,65 +43,76 @@
     <t xml:space="preserve">Home</t>
   </si>
   <si>
-    <t xml:space="preserve">95, 98, 97, 98, 99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE, TRUE, TRUE, TRUE, TRUE</t>
+    <t xml:space="preserve">95, 98, 97, 98, 99; 97.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE, TRUE, TRUE, TRUE, TRUE; 1</t>
   </si>
   <si>
     <t xml:space="preserve">ROMs</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 97, 97, 96, 95</t>
+    <t xml:space="preserve">98, 97, 97, 96, 95; 96.6</t>
   </si>
   <si>
     <t xml:space="preserve">ROM Info</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 98, 98, 98, 97</t>
+    <t xml:space="preserve">98, 98, 98, 98, 97; 97.8</t>
   </si>
   <si>
     <t xml:space="preserve">Natures</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 98, 97, 97, 98</t>
+    <t xml:space="preserve">98, 98, 97, 97, 98; 97.6</t>
   </si>
   <si>
     <t xml:space="preserve">FAQ</t>
   </si>
   <si>
-    <t xml:space="preserve">99, 98, 98, 94, 98</t>
+    <t xml:space="preserve">99, 98, 98, 94, 98; 97.4</t>
   </si>
   <si>
     <t xml:space="preserve">Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">98, 99, </t>
+    <t xml:space="preserve">98, 99, 99, 98, 99; 98.6</t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
   </si>
   <si>
+    <t xml:space="preserve">99, 99, 99, 98, 99; 98.8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Register</t>
   </si>
   <si>
     <t xml:space="preserve">Account</t>
   </si>
   <si>
+    <t xml:space="preserve">95, 95, 96, 96, 96; 95.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Found</t>
   </si>
   <si>
+    <t xml:space="preserve">99, 99, 100, 99, 99; 99.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 / 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -169,16 +180,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -202,7 +209,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,6 +250,15 @@
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
@@ -254,6 +270,15 @@
       <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F3" s="0" t="s">
         <v>8</v>
       </c>
@@ -265,6 +290,15 @@
       <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F4" s="0" t="s">
         <v>8</v>
       </c>
@@ -276,6 +310,15 @@
       <c r="B5" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>100</v>
+      </c>
       <c r="F5" s="0" t="s">
         <v>8</v>
       </c>
@@ -287,6 +330,15 @@
       <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>90</v>
+      </c>
       <c r="F6" s="0" t="s">
         <v>8</v>
       </c>
@@ -298,32 +350,118 @@
       <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>97.78</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bglat\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A33123-1394-4350-B905-1BAEAA4911E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F416751-A05E-4E79-BA50-66ED6CC22642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10035" yWindow="2940" windowWidth="21600" windowHeight="10590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bglat\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F416751-A05E-4E79-BA50-66ED6CC22642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B8553-F406-4B3A-8E0F-E13FCA7C4F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10035" yWindow="2940" windowWidth="21600" windowHeight="10590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="21600" windowHeight="10590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PokeROM Audits" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Page</t>
   </si>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bglat\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B8553-F406-4B3A-8E0F-E13FCA7C4F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB559-26DA-4F20-9C8E-5DAFD24EB4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2940" windowWidth="21600" windowHeight="10590" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PokeROM Audits" sheetId="1" r:id="rId1"/>
@@ -468,21 +468,21 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -542,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -622,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -642,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>

--- a/misc/website_audits.xlsx
+++ b/misc/website_audits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bglat\Projects\PokeROM\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5CB559-26DA-4F20-9C8E-5DAFD24EB4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7A381F-9DE1-4F90-A72C-298E7023BC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
